--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>809033.0548394561</v>
+        <v>835732.1775350318</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7128448.701475536</v>
+        <v>7602841.820114835</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3476108.837864221</v>
+        <v>4325347.669273167</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10639088.44197428</v>
+        <v>10273848.80191212</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>185.864430919943</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>174.8412698944141</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="V4" t="n">
-        <v>155.8860385675338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>69.01462172684549</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>102.1160415674019</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.91827500188597</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>12.88937709206649</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>11.44871811097143</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>43.31785343914014</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>129.7411677825659</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>109.7914711642128</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>272.1412634519419</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>92.26024958059011</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18624318344742</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>94.692568408169</v>
+        <v>98.46001941071266</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.3341166742055</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>86.07483416205679</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>92.26024958059011</v>
       </c>
       <c r="I15" t="n">
-        <v>18.1862431834474</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>79.19006854292071</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>12.62367064107713</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292547</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>60.30751248590785</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247747</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>11.16818915334155</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>25.63590528224748</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>54.03853317703816</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T22" t="n">
-        <v>117.0859349823494</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>1.229820707385838</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>67.6332161998253</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>120.4263234899701</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>22.75865426406985</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>134.3879184575346</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>18.26879610203982</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>71.98153210089556</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.9578662344161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>57.02146927219732</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>202.4425172951286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>65.61655380022158</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>56.00855464855938</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>112.9416910403794</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>17.25588147840188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4036,7 +4036,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4185,13 +4185,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>187.2155558059569</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>104.7906844222652</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.6042763530502</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C2" t="n">
-        <v>974.6042763530502</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="D2" t="n">
-        <v>616.3385777462997</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>230.5503251480555</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>230.5503251480555</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>230.5503251480555</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1364.743608328862</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>974.6042763530502</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4427,7 +4427,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4494,37 +4494,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>695.0845050451137</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>695.0845050451137</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>695.0845050451137</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>277.1206969433006</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2144.1607301002</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1813.097842756629</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1813.097842756629</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.0633493392343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>257.0633493392343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>257.0633493392343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>257.0633493392343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.0633493392343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.0633493392343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.31497677176444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694739</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694739</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694739</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1254.177966138805</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1254.177966138805</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>895.9122675320543</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>895.9122675320543</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>484.9263627424468</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>66.96255464063364</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>66.96255464063364</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2685.584729289968</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2509.407241604139</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2509.407241604139</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2509.407241604139</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.546461473041</v>
+        <v>2509.407241604139</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202927</v>
+        <v>2509.407241604139</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202927</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y8" t="n">
-        <v>1640.777806202927</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>684.3735766921516</v>
+        <v>597.07729957758</v>
       </c>
       <c r="T10" t="n">
-        <v>684.3735766921516</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="U10" t="n">
-        <v>684.3735766921516</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="V10" t="n">
-        <v>684.3735766921516</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1580.775345511218</v>
+        <v>767.8443062319718</v>
       </c>
       <c r="C11" t="n">
-        <v>1211.812828570806</v>
+        <v>767.8443062319718</v>
       </c>
       <c r="D11" t="n">
-        <v>853.5471299640558</v>
+        <v>767.8443062319718</v>
       </c>
       <c r="E11" t="n">
-        <v>467.7588773658115</v>
+        <v>767.8443062319718</v>
       </c>
       <c r="F11" t="n">
-        <v>356.8584014423643</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="G11" t="n">
-        <v>356.8584014423643</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>199.5143021373487</v>
@@ -5047,46 +5047,46 @@
         <v>468.4264940665502</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552597</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350725</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N11" t="n">
-        <v>1738.603625623769</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.602766936377</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P11" t="n">
-        <v>2477.000885571629</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.184741116961</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018224</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018224</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018224</v>
+        <v>2113.16585401275</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018224</v>
+        <v>1782.102966669179</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748109</v>
+        <v>1429.334311399065</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.91467748703</v>
+        <v>1429.334311399065</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.775345511218</v>
+        <v>1154.444146296094</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H12" t="n">
-        <v>72.31292442990733</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>246.6565409677914</v>
       </c>
       <c r="K12" t="n">
-        <v>537.8115956207097</v>
+        <v>702.6555516296427</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2309936650815</v>
+        <v>1010.074949674015</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.331799318883</v>
+        <v>1388.175755327816</v>
       </c>
       <c r="N12" t="n">
-        <v>1625.848453140027</v>
+        <v>1790.69240914896</v>
       </c>
       <c r="O12" t="n">
-        <v>1971.85275817634</v>
+        <v>2136.696714185273</v>
       </c>
       <c r="P12" t="n">
-        <v>2230.218651003075</v>
+        <v>2395.062607012008</v>
       </c>
       <c r="Q12" t="n">
         <v>2560.986726597623</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>317.5284105137328</v>
+        <v>303.5141862940261</v>
       </c>
       <c r="C13" t="n">
-        <v>317.5284105137328</v>
+        <v>303.5141862940261</v>
       </c>
       <c r="D13" t="n">
-        <v>317.5284105137328</v>
+        <v>153.3975468816904</v>
       </c>
       <c r="E13" t="n">
-        <v>317.5284105137328</v>
+        <v>153.3975468816904</v>
       </c>
       <c r="F13" t="n">
-        <v>221.8793515155822</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88339090485945</v>
+        <v>82.88339090485941</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2782098866546</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L13" t="n">
         <v>542.8089378877605</v>
@@ -5223,28 +5223,28 @@
         <v>1687.816392302166</v>
       </c>
       <c r="R13" t="n">
-        <v>1687.816392302166</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="S13" t="n">
-        <v>1492.060663628368</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="T13" t="n">
-        <v>1492.060663628368</v>
+        <v>1364.721000476698</v>
       </c>
       <c r="U13" t="n">
-        <v>1492.060663628368</v>
+        <v>1075.605395434891</v>
       </c>
       <c r="V13" t="n">
-        <v>1237.376175422481</v>
+        <v>820.920907229004</v>
       </c>
       <c r="W13" t="n">
-        <v>947.95900538552</v>
+        <v>531.5037371920434</v>
       </c>
       <c r="X13" t="n">
-        <v>719.9694544875026</v>
+        <v>303.5141862940261</v>
       </c>
       <c r="Y13" t="n">
-        <v>499.1768753439725</v>
+        <v>303.5141862940261</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.959449965771</v>
+        <v>1237.230153182408</v>
       </c>
       <c r="C14" t="n">
-        <v>797.9969330253592</v>
+        <v>1237.230153182408</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>878.9644545756578</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036448</v>
+        <v>878.9644545756578</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036448</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>199.5143021373487</v>
       </c>
       <c r="K14" t="n">
-        <v>468.4264940665503</v>
+        <v>468.4264940665498</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9376088552599</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M14" t="n">
-        <v>1282.872051350725</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N14" t="n">
-        <v>1738.603625623769</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.602766936377</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P14" t="n">
-        <v>2477.000885571629</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.184741116961</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2574.994750559858</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T14" t="n">
-        <v>2366.737980492457</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="U14" t="n">
-        <v>2366.737980492457</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="V14" t="n">
-        <v>2366.737980492457</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="W14" t="n">
-        <v>2013.969325222343</v>
+        <v>2013.969325222342</v>
       </c>
       <c r="X14" t="n">
-        <v>1640.503566961263</v>
+        <v>2013.969325222342</v>
       </c>
       <c r="Y14" t="n">
-        <v>1553.559290029893</v>
+        <v>1623.82999324653</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>72.31292442990731</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>246.6565409677914</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K15" t="n">
-        <v>537.8115956207089</v>
+        <v>316.0048420001851</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2309936650809</v>
+        <v>623.4242400445569</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.331799318882</v>
+        <v>1001.525045698358</v>
       </c>
       <c r="N15" t="n">
-        <v>1625.848453140027</v>
+        <v>1404.041699519502</v>
       </c>
       <c r="O15" t="n">
-        <v>1971.85275817634</v>
+        <v>2071.586099546512</v>
       </c>
       <c r="P15" t="n">
-        <v>2230.218651003075</v>
+        <v>2329.951992373247</v>
       </c>
       <c r="Q15" t="n">
         <v>2560.986726597623</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>498.8626623130037</v>
+        <v>835.7352149361283</v>
       </c>
       <c r="C16" t="n">
-        <v>498.8626623130037</v>
+        <v>666.7990320082214</v>
       </c>
       <c r="D16" t="n">
-        <v>348.746022900668</v>
+        <v>516.6823925958856</v>
       </c>
       <c r="E16" t="n">
-        <v>200.8329293182748</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036448</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>82.88339090485947</v>
+        <v>82.88339090485941</v>
       </c>
       <c r="K16" t="n">
-        <v>260.2782098866546</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L16" t="n">
         <v>542.8089378877605</v>
       </c>
       <c r="M16" t="n">
-        <v>851.0870999282813</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N16" t="n">
-        <v>1157.469712732904</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O16" t="n">
-        <v>1424.447349606355</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P16" t="n">
         <v>1629.372157534689</v>
@@ -5466,22 +5466,22 @@
         <v>1687.816392302166</v>
       </c>
       <c r="T16" t="n">
-        <v>1465.05195375469</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="U16" t="n">
-        <v>1175.936348712882</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="V16" t="n">
-        <v>921.2518605069953</v>
+        <v>1433.131904096279</v>
       </c>
       <c r="W16" t="n">
-        <v>908.5006780412608</v>
+        <v>1143.714734059318</v>
       </c>
       <c r="X16" t="n">
-        <v>680.5111271432435</v>
+        <v>915.7251831613007</v>
       </c>
       <c r="Y16" t="n">
-        <v>680.5111271432435</v>
+        <v>915.7251831613007</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>1469.87486958777</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>1100.912352647359</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>742.6466540406084</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>468.42649406655</v>
       </c>
       <c r="L17" t="n">
-        <v>1614.698881814245</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644074</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870721</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>2488.892320950822</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>2235.320194471116</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>1904.257307127545</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>1843.34062784885</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>1469.87486958777</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>1469.87486958777</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>316.0048420001851</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>623.4242400445569</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1001.525045698358</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1404.041699519502</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2071.586099546512</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2438.195165861565</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>720.69789701373</v>
+        <v>835.7352149361283</v>
       </c>
       <c r="C19" t="n">
-        <v>551.7617140858231</v>
+        <v>666.7990320082214</v>
       </c>
       <c r="D19" t="n">
-        <v>401.6450746734873</v>
+        <v>516.6823925958856</v>
       </c>
       <c r="E19" t="n">
-        <v>253.7319810910942</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="F19" t="n">
-        <v>106.8420335931839</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>82.88339090485941</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.556111024461</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="W19" t="n">
-        <v>1123.1389409875</v>
+        <v>1466.165809807915</v>
       </c>
       <c r="X19" t="n">
-        <v>1123.1389409875</v>
+        <v>1238.176258909898</v>
       </c>
       <c r="Y19" t="n">
-        <v>902.3463618439697</v>
+        <v>1017.383679766368</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>1238.787657291</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>1238.787657291</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K20" t="n">
-        <v>741.102086204384</v>
+        <v>468.42649406655</v>
       </c>
       <c r="L20" t="n">
-        <v>1605.620901857739</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M20" t="n">
-        <v>2584.171204687567</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N20" t="n">
-        <v>3130.95002174635</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075804</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432983</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>2443.576964538517</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>2443.576964538517</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>2388.992587592013</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>2015.526829330934</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>1625.387497355122</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.9597618327374</v>
+        <v>1088.377376515824</v>
       </c>
       <c r="C22" t="n">
-        <v>784.0235789048305</v>
+        <v>919.4411935879167</v>
       </c>
       <c r="D22" t="n">
-        <v>633.9069394924948</v>
+        <v>769.3245541755809</v>
       </c>
       <c r="E22" t="n">
-        <v>485.9938459101016</v>
+        <v>621.4114605931878</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>474.5215130952774</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="T22" t="n">
-        <v>1838.074844910411</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="U22" t="n">
-        <v>1838.074844910411</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="V22" t="n">
-        <v>1583.390356704524</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="W22" t="n">
-        <v>1583.390356704524</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="X22" t="n">
-        <v>1355.400805806507</v>
+        <v>1490.818420489593</v>
       </c>
       <c r="Y22" t="n">
-        <v>1134.608226662977</v>
+        <v>1270.025841346063</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5989,28 +5989,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>351.3014367967911</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866375</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139992</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.662598458018</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1744.870257862262</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1523.103642431788</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1523.103642431788</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1523.103642431788</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1523.103642431788</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>1302.311063288258</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6214,22 +6214,22 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
         <v>1482.778354750621</v>
@@ -6238,16 +6238,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807097</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,7 +6335,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447819</v>
@@ -6344,7 +6344,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.6864413838525</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C28" t="n">
-        <v>709.6864413838525</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>559.5698019715168</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>411.6567083891237</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>264.7667608912133</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6387,16 +6387,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.7880996267</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208131</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838525</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X28" t="n">
-        <v>709.6864413838525</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y28" t="n">
-        <v>709.6864413838525</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="29">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>260.9043113423046</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C31" t="n">
-        <v>260.9043113423046</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>260.9043113423046</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
         <v>242.4509819463048</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="32">
@@ -6682,19 +6682,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6779,10 +6779,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.4168978689405</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410336</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6897,13 +6897,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>999.1036114208126</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>999.1036114208126</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.0653626991802</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,67 +6922,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7140,7 +7140,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7177,16 +7177,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7259,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>724.8986285230101</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C40" t="n">
-        <v>658.619281250059</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D40" t="n">
-        <v>508.5026418377232</v>
+        <v>300.048425655595</v>
       </c>
       <c r="E40" t="n">
-        <v>360.5895482553301</v>
+        <v>152.1353320732019</v>
       </c>
       <c r="F40" t="n">
-        <v>360.5895482553301</v>
+        <v>152.1353320732019</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1644.746393431758</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1644.746393431758</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>1355.329223394797</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>1127.33967249678</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.5470933532498</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7399,10 +7399,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7496,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.9043113423046</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C43" t="n">
-        <v>260.9043113423046</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="D43" t="n">
-        <v>260.9043113423046</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>112.9912177599115</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,7 +7633,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
@@ -7645,7 +7645,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7654,46 +7654,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1797.117834600128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M44" t="n">
-        <v>2330.649739272053</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330835</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7797,13 +7797,13 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1677.406386836013</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1455.639771405539</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U46" t="n">
-        <v>1166.536904531182</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V46" t="n">
-        <v>1166.536904531182</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W46" t="n">
-        <v>877.1197344942216</v>
+        <v>1385.409954652097</v>
       </c>
       <c r="X46" t="n">
-        <v>877.1197344942216</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y46" t="n">
-        <v>877.1197344942216</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>97.95619053890874</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>43.56824126217938</v>
       </c>
       <c r="R12" t="n">
         <v>17.26494649393206</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>97.95619053890789</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>324.7879747380777</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>109.3365388770895</v>
       </c>
       <c r="R15" t="n">
-        <v>17.26494649393203</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>226.7688596193103</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>324.7879747380777</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>109.3365388770891</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>124.0833809162805</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.53663776704161</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400235</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476829</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11302,19 +11302,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>241.9338129178253</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>89.52456338961929</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>168.81861070074</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>149.081502869943</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361539</v>
       </c>
       <c r="V4" t="n">
-        <v>96.2516047562942</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>254.9081510375117</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>149.1081259408874</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22959,13 +22959,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>90.04734679045225</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.25950038248487</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23026,10 +23026,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>139.0419391527947</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>43.02968446384027</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>103.3473385410177</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>82.40437116745301</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -23244,10 +23244,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>297.0845745774986</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.4371413535349</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.44749355031652</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>114.0966752041116</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>50.72847961476225</v>
+        <v>46.96102861221858</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H13" t="n">
         <v>146.8105729959039</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521085</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.541929067505976</v>
       </c>
       <c r="G14" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>299.8862654257798</v>
       </c>
       <c r="I14" t="n">
-        <v>61.44749355031652</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.1631044939968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>100.6419116390166</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>146.8105729959039</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521084</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S16" t="n">
         <v>193.7981713870603</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>273.8993276955139</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>288.9334562315051</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>154.8576191056867</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>260.8870930543435</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>295.2024355403748</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>102.4630142938198</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>224.4798346816513</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>99.61360489880254</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>69.34270184147175</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>143.2671539949584</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>152.1350798790564</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>128.1651665445293</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>214.5414662356955</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>126.486218812281</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.6267871176787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>89.41249337437185</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.14213605696617</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>101.6302672984063</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>110.0172536104689</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>35.67378197783296</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>128.1651665445294</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.553469525484957</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>120.918970966772</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>776028.9822512047</v>
+        <v>776028.9822512049</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>786989.659873454</v>
+        <v>786989.6598734538</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>786989.6598734539</v>
+        <v>786989.6598734538</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1013531.16128487</v>
+        <v>786989.6598734539</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1013531.16128487</v>
+        <v>786989.6598734539</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="C2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="D2" t="n">
         <v>289152.6100157576</v>
-      </c>
-      <c r="C2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="D2" t="n">
-        <v>289152.6100157574</v>
       </c>
       <c r="E2" t="n">
         <v>312157.9037460884</v>
       </c>
       <c r="F2" t="n">
+        <v>312157.9037460883</v>
+      </c>
+      <c r="G2" t="n">
+        <v>312157.9037460884</v>
+      </c>
+      <c r="H2" t="n">
         <v>312157.9037460885</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>397081.786886983</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>397081.786886983</v>
+      </c>
+      <c r="K2" t="n">
+        <v>397081.786886983</v>
+      </c>
+      <c r="L2" t="n">
+        <v>397081.786886983</v>
+      </c>
+      <c r="M2" t="n">
         <v>397081.7868869831</v>
       </c>
-      <c r="I2" t="n">
-        <v>397081.7868869831</v>
-      </c>
-      <c r="J2" t="n">
-        <v>397081.7868869831</v>
-      </c>
-      <c r="K2" t="n">
-        <v>397081.7868869831</v>
-      </c>
-      <c r="L2" t="n">
-        <v>397081.7868869831</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>397081.786886983</v>
       </c>
-      <c r="N2" t="n">
-        <v>397081.7868869831</v>
-      </c>
       <c r="O2" t="n">
-        <v>397081.7868869831</v>
+        <v>397081.786886983</v>
       </c>
       <c r="P2" t="n">
-        <v>397081.7868869829</v>
+        <v>397081.786886983</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>242267.3897762172</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>234848.617050359</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>125192.8247873504</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>7134.159330842211</v>
+        <v>7134.159330842212</v>
       </c>
       <c r="F4" t="n">
-        <v>7134.159330842206</v>
+        <v>7134.159330842214</v>
       </c>
       <c r="G4" t="n">
+        <v>7134.159330842212</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7134.159330842216</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="H4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
-      </c>
       <c r="J4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
@@ -26450,7 +26450,7 @@
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
@@ -26472,22 +26472,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>61958.82776879415</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="F5" t="n">
-        <v>61958.82776879416</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26502,7 +26502,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-443403.3267188859</v>
+        <v>-437941.7543476488</v>
       </c>
       <c r="C6" t="n">
-        <v>146564.5524956585</v>
+        <v>152026.1248668956</v>
       </c>
       <c r="D6" t="n">
-        <v>146564.5524956584</v>
+        <v>152026.1248668959</v>
       </c>
       <c r="E6" t="n">
-        <v>-230898.6881630869</v>
+        <v>-226472.3540097145</v>
       </c>
       <c r="F6" t="n">
-        <v>238146.7675871495</v>
+        <v>242573.1017405217</v>
       </c>
       <c r="G6" t="n">
-        <v>36139.31595770243</v>
+        <v>242573.1017405218</v>
       </c>
       <c r="H6" t="n">
-        <v>278406.7057339197</v>
+        <v>242573.1017405219</v>
       </c>
       <c r="I6" t="n">
-        <v>278406.7057339197</v>
+        <v>44162.8480955927</v>
       </c>
       <c r="J6" t="n">
-        <v>101983.4865413267</v>
+        <v>102588.2459533587</v>
       </c>
       <c r="K6" t="n">
-        <v>278406.7057339198</v>
+        <v>279011.4651459516</v>
       </c>
       <c r="L6" t="n">
-        <v>278406.7057339196</v>
+        <v>279011.4651459516</v>
       </c>
       <c r="M6" t="n">
-        <v>278406.7057339196</v>
+        <v>279011.4651459518</v>
       </c>
       <c r="N6" t="n">
-        <v>278406.7057339196</v>
+        <v>279011.4651459517</v>
       </c>
       <c r="O6" t="n">
-        <v>153213.8809465692</v>
+        <v>279011.4651459516</v>
       </c>
       <c r="P6" t="n">
-        <v>278406.7057339195</v>
+        <v>279011.4651459517</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>961.5670451980345</v>
+        <v>961.5670451980344</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980346</v>
+        <v>961.5670451980344</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980344</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26792,22 +26792,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.2096553952637</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>128.209655395264</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>520.2256578503741</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503741</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503741</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31764,37 +31764,37 @@
         <v>328.0876422206098</v>
       </c>
       <c r="K11" t="n">
-        <v>491.7183277411437</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L11" t="n">
-        <v>610.020066271714</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M11" t="n">
-        <v>678.7648620105704</v>
+        <v>678.7648620105703</v>
       </c>
       <c r="N11" t="n">
-        <v>689.7479871047168</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O11" t="n">
         <v>651.3094652728054</v>
       </c>
       <c r="P11" t="n">
-        <v>555.877560033302</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q11" t="n">
-        <v>417.440897495997</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R11" t="n">
         <v>242.8222548861147</v>
       </c>
       <c r="S11" t="n">
-        <v>88.08727253246319</v>
+        <v>88.08727253246317</v>
       </c>
       <c r="T11" t="n">
         <v>16.9216471974046</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3092476929280108</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>19.97519465590634</v>
       </c>
       <c r="I12" t="n">
-        <v>71.21038966796766</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J12" t="n">
-        <v>195.4067520812346</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K12" t="n">
         <v>333.9812632363777</v>
       </c>
       <c r="L12" t="n">
-        <v>449.0790242691387</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M12" t="n">
         <v>524.0540396329287</v>
@@ -31870,7 +31870,7 @@
         <v>38.41732487182711</v>
       </c>
       <c r="T12" t="n">
-        <v>8.33660485412258</v>
+        <v>8.336604854122578</v>
       </c>
       <c r="U12" t="n">
         <v>0.1360708082827408</v>
@@ -31916,13 +31916,13 @@
         <v>15.41659951153571</v>
       </c>
       <c r="I13" t="n">
-        <v>52.14530795926392</v>
+        <v>52.14530795926391</v>
       </c>
       <c r="J13" t="n">
         <v>122.5919165656576</v>
       </c>
       <c r="K13" t="n">
-        <v>201.45617766608</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L13" t="n">
         <v>257.7945484781747</v>
@@ -31931,13 +31931,13 @@
         <v>271.8082059073722</v>
       </c>
       <c r="N13" t="n">
-        <v>265.345214292107</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O13" t="n">
-        <v>245.0892527662139</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P13" t="n">
-        <v>209.7161962182729</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q13" t="n">
         <v>145.1966238249032</v>
@@ -31952,7 +31952,7 @@
         <v>7.408795266279935</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09458036510144611</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.865596161600136</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58853668998741</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I14" t="n">
         <v>149.0283960200894</v>
       </c>
       <c r="J14" t="n">
-        <v>328.0876422206099</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K14" t="n">
-        <v>491.7183277411438</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L14" t="n">
-        <v>610.0200662717141</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M14" t="n">
-        <v>678.7648620105705</v>
+        <v>678.7648620105703</v>
       </c>
       <c r="N14" t="n">
-        <v>689.7479871047169</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O14" t="n">
-        <v>651.3094652728055</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P14" t="n">
-        <v>555.8775600333021</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.440897495997</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R14" t="n">
-        <v>242.8222548861148</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246319</v>
+        <v>88.08727253246317</v>
       </c>
       <c r="T14" t="n">
-        <v>16.92164719740461</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3092476929280109</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,34 +32071,34 @@
         <v>2.068276285897659</v>
       </c>
       <c r="H15" t="n">
-        <v>19.97519465590635</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I15" t="n">
-        <v>71.21038966796768</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J15" t="n">
-        <v>195.4067520812346</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K15" t="n">
-        <v>333.9812632363778</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L15" t="n">
-        <v>449.0790242691388</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M15" t="n">
-        <v>524.0540396329288</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N15" t="n">
-        <v>537.9241906905496</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O15" t="n">
-        <v>492.0955424609225</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9500567342645</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.0136536173925</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R15" t="n">
         <v>128.4145574700319</v>
@@ -32107,7 +32107,7 @@
         <v>38.41732487182711</v>
       </c>
       <c r="T15" t="n">
-        <v>8.33660485412258</v>
+        <v>8.336604854122578</v>
       </c>
       <c r="U15" t="n">
         <v>0.1360708082827408</v>
@@ -32153,43 +32153,43 @@
         <v>15.41659951153571</v>
       </c>
       <c r="I16" t="n">
-        <v>52.14530795926392</v>
+        <v>52.14530795926391</v>
       </c>
       <c r="J16" t="n">
         <v>122.5919165656576</v>
       </c>
       <c r="K16" t="n">
-        <v>201.45617766608</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L16" t="n">
-        <v>257.7945484781748</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M16" t="n">
-        <v>271.8082059073723</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N16" t="n">
-        <v>265.345214292107</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O16" t="n">
-        <v>245.0892527662139</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P16" t="n">
-        <v>209.7161962182729</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q16" t="n">
         <v>145.1966238249032</v>
       </c>
       <c r="R16" t="n">
-        <v>77.96574763195865</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S16" t="n">
         <v>30.21842664991199</v>
       </c>
       <c r="T16" t="n">
-        <v>7.408795266279936</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09458036510144613</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105703</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246317</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122578</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>52.14530795926391</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0417376939236</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K11" t="n">
         <v>271.6284766961631</v>
       </c>
       <c r="L11" t="n">
-        <v>374.2536513017267</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4186287832977</v>
+        <v>448.4186287832975</v>
       </c>
       <c r="N11" t="n">
-        <v>460.3349235081259</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O11" t="n">
         <v>421.2112538511186</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6445642780324</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.1352076215475</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R11" t="n">
-        <v>27.23671707198261</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K12" t="n">
-        <v>294.0960148009275</v>
+        <v>460.6050612745973</v>
       </c>
       <c r="L12" t="n">
         <v>310.5246444892645</v>
@@ -35509,7 +35509,7 @@
         <v>260.9756493199342</v>
       </c>
       <c r="Q12" t="n">
-        <v>334.10916726722</v>
+        <v>167.6001207935503</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.23273644898482</v>
+        <v>29.23273644898481</v>
       </c>
       <c r="K13" t="n">
         <v>179.1866858401971</v>
@@ -35579,16 +35579,16 @@
         <v>311.3920828692128</v>
       </c>
       <c r="N13" t="n">
-        <v>309.4773866713356</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O13" t="n">
         <v>269.6743806802535</v>
       </c>
       <c r="P13" t="n">
-        <v>206.9947554831664</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.03458057320883</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0417376939236</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K14" t="n">
-        <v>271.6284766961632</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L14" t="n">
-        <v>374.2536513017268</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M14" t="n">
-        <v>448.4186287832978</v>
+        <v>448.4186287832975</v>
       </c>
       <c r="N14" t="n">
-        <v>460.334923508126</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O14" t="n">
-        <v>421.2112538511187</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6445642780325</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1352076215476</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198267</v>
+        <v>27.23671707198258</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.6601607549767</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K15" t="n">
-        <v>294.0960148009267</v>
+        <v>196.1398242620187</v>
       </c>
       <c r="L15" t="n">
-        <v>310.5246444892646</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M15" t="n">
-        <v>381.9200057109105</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N15" t="n">
-        <v>406.5824786072163</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O15" t="n">
-        <v>349.4992980164781</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P15" t="n">
         <v>260.9756493199342</v>
       </c>
       <c r="Q15" t="n">
-        <v>334.1091672672201</v>
+        <v>233.3684184084604</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.23273644898484</v>
+        <v>29.23273644898481</v>
       </c>
       <c r="K16" t="n">
         <v>179.1866858401971</v>
@@ -35813,19 +35813,19 @@
         <v>285.3845737384909</v>
       </c>
       <c r="M16" t="n">
-        <v>311.3920828692129</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N16" t="n">
-        <v>309.4773866713356</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O16" t="n">
         <v>269.6743806802535</v>
       </c>
       <c r="P16" t="n">
-        <v>206.9947554831664</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.03458057320883</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L17" t="n">
-        <v>682.3589740116424</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>448.4186287832975</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>27.23671707198258</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>196.1398242620187</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>370.3121881970233</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>29.23273644898481</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K20" t="n">
-        <v>461.274667471681</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>258.3236387357542</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282428</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37317,10 +37317,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.755584535902</v>
+        <v>739.5540726950834</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37545,7 +37545,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37554,10 +37554,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>739.5540726950834</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -38022,19 +38022,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>697.5239273101574</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>628.4456792198461</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
